--- a/ID/ID.xlsx
+++ b/ID/ID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonny Cala\Desktop\será\ID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonny Cala\Desktop\BOT_TELEGRAM\ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56DDC6B-FF27-4634-B2AE-CBD7176BE779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618276C4-5697-4124-BCF1-5FDD67AAF914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="6675" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -61,13 +61,22 @@
   </si>
   <si>
     <t>Muñaño</t>
+  </si>
+  <si>
+    <t>"@Prospeymoney2"</t>
+  </si>
+  <si>
+    <t>Saray</t>
+  </si>
+  <si>
+    <t>Prueba free quitar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +96,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,12 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,6 +503,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6864473714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
